--- a/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Call_Center_Dashboard.xlsx
+++ b/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Call_Center_Dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A153A-D956-4344-A262-6FFD5F06B8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1666DD2E-CFF2-CD4E-B6A5-14B9D7258BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="5" xr2:uid="{AC009FEB-866C-344B-95FF-96A91E629630}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="4" xr2:uid="{AC009FEB-866C-344B-95FF-96A91E629630}"/>
   </bookViews>
   <sheets>
     <sheet name="Service" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <definedName name="Hierarchy" localSheetId="2">Employee!$A$1:$H$27</definedName>
     <definedName name="Targets" localSheetId="3">Targets!$A$1:$C$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{E547166E-7AFE-0B45-93FC-2E7BE799C9CF}" name="Call_Data" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Call_Data.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Call_Data.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -61,7 +62,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{26CF91F6-A219-7449-A5C7-71646EFD69E0}" name="Hierarchy" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Hierarchy.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Hierarchy.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -75,7 +76,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{9B18054A-65C6-8145-8B18-8DFAD72AF140}" name="Targets" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Targets.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_18_Dasboards-in-Excel-Google-Sheets/Targets.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -328,8 +329,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0%;\-0.0%;\-"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;\-"/>
+    <numFmt numFmtId="164" formatCode="0.0%;\-0.0%;\-"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -559,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,21 +571,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,37 +596,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -640,92 +634,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -783,86 +707,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -963,6 +807,96 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1098,371 +1032,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,10 +1623,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="28" t="s">
         <v>73</v>
       </c>
     </row>
@@ -63814,7 +63388,7 @@
       <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -64053,10 +63627,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A2:W39"/>
+  <dimension ref="A2:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:H38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -64076,27 +63650,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="29"/>
       <c r="H4" s="2">
         <f>INDEX(Employee!A:A,MATCH(E4,Employee!E:E,0))</f>
         <v>12489</v>
@@ -64107,48 +63681,48 @@
       <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="30"/>
       <c r="H5" s="2">
         <f>INDEX(Service!C:C,MATCH(E5,Service!D:D,0))</f>
-        <v>201706</v>
+        <v>201708</v>
       </c>
       <c r="I5" s="2">
         <f>INDEX(Service!E:E,MATCH(E5,Service!D:D,0))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="5" t="s">
@@ -64175,196 +63749,196 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <f>IF(C8&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C8))</f>
-        <v>42887</v>
+        <f t="shared" ref="A8:A38" si="0">IF(C8&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C8))</f>
+        <v>42948</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <f>IFERROR(P8,0)</f>
-        <v>32</v>
-      </c>
-      <c r="E8" s="18">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15">
         <f>IFERROR(Q8/P8,0)</f>
-        <v>777.375</v>
-      </c>
-      <c r="F8" s="19">
+        <v>919.03571428571433</v>
+      </c>
+      <c r="F8" s="16">
         <f>IFERROR(V8/P8,0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="G8" s="19">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="G8" s="16">
         <f>IFERROR(S8/P8,0)</f>
-        <v>0.90625</v>
-      </c>
-      <c r="H8" s="19">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H8" s="16">
         <f>IFERROR(T8/S8,0)</f>
-        <v>0.62068965517241381</v>
-      </c>
-      <c r="I8" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="I8" s="16">
         <f>IFERROR(U8/T8,0)</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="J8" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="J8" s="16">
         <f>IFERROR((T8-U8)/T8,0)</f>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="K8" s="19">
+        <v>0.4375</v>
+      </c>
+      <c r="K8" s="16">
         <f>IFERROR(U8/P8,0)</f>
-        <v>0.21875</v>
-      </c>
-      <c r="L8" s="20">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="L8" s="17">
         <f>IFERROR(R8/P8,0)</f>
-        <v>0.28125</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="P8">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q8">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>24876</v>
+        <v>25733</v>
       </c>
       <c r="R8">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T8">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U8">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V8">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A8,Data!$K:$K,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <f>IF(C9&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C9))</f>
-        <v>42888</v>
+        <f t="shared" si="0"/>
+        <v>42949</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
-        <f t="shared" ref="D9:D39" si="0">IFERROR(P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
-        <f t="shared" ref="E9:E39" si="1">IFERROR(Q9/P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
-        <f t="shared" ref="F9:F39" si="2">IFERROR(V9/P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
-        <f t="shared" ref="G9:G39" si="3">IFERROR(S9/P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
-        <f t="shared" ref="H9:H39" si="4">IFERROR(T9/S9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <f t="shared" ref="I9:I39" si="5">IFERROR(U9/T9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
-        <f t="shared" ref="J9:J39" si="6">IFERROR((T9-U9)/T9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
-        <f t="shared" ref="K9:K39" si="7">IFERROR(U9/P9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" ref="L9:L39" si="8">IFERROR(R9/P9,0)</f>
-        <v>0</v>
+      <c r="D9" s="19">
+        <f t="shared" ref="D9:D39" si="1">IFERROR(P9,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" ref="E9:E39" si="2">IFERROR(Q9/P9,0)</f>
+        <v>820.16666666666663</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" ref="F9:F39" si="3">IFERROR(V9/P9,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" ref="G9:G39" si="4">IFERROR(S9/P9,0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" ref="H9:H39" si="5">IFERROR(T9/S9,0)</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" ref="I9:I39" si="6">IFERROR(U9/T9,0)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" ref="J9:J39" si="7">IFERROR((T9-U9)/T9,0)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" ref="K9:K39" si="8">IFERROR(U9/P9,0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" ref="L9:L39" si="9">IFERROR(R9/P9,0)</f>
+        <v>0.23333333333333334</v>
       </c>
       <c r="P9">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q9">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>24605</v>
       </c>
       <c r="R9">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S9">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U9">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V9">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A9,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <f>IF(C10&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C10))</f>
-        <v>42889</v>
+        <f t="shared" si="0"/>
+        <v>42950</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="22">
-        <f t="shared" si="0"/>
+      <c r="D10" s="19">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="E10" s="22">
-        <f t="shared" si="1"/>
-        <v>780.5625</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="19">
         <f t="shared" si="2"/>
-        <v>9.375E-2</v>
-      </c>
-      <c r="G10" s="23">
+        <v>798.90625</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="3"/>
-        <v>0.90625</v>
-      </c>
-      <c r="H10" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="G10" s="20">
         <f t="shared" si="4"/>
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="I10" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="H10" s="20">
         <f t="shared" si="5"/>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="J10" s="23">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="6"/>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="K10" s="23">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="J10" s="20">
         <f t="shared" si="7"/>
-        <v>0.40625</v>
-      </c>
-      <c r="L10" s="24">
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="K10" s="20">
         <f t="shared" si="8"/>
-        <v>0.25</v>
+        <v>0.46875</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="9"/>
+        <v>0.28125</v>
       </c>
       <c r="P10">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
@@ -64372,72 +63946,72 @@
       </c>
       <c r="Q10">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
-        <v>24978</v>
+        <v>25565</v>
       </c>
       <c r="R10">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S10">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T10">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V10">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A10,Data!$K:$K,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <f>IF(C11&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C11))</f>
-        <v>42890</v>
+        <f t="shared" si="0"/>
+        <v>42951</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="E11" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="F11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="G11" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="H11" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" s="23">
+      <c r="I11" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K11" s="23">
+      <c r="J11" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L11" s="24">
+      <c r="K11" s="20">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11">
@@ -64471,286 +64045,286 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <f>IF(C12&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C12))</f>
-        <v>42891</v>
+        <f t="shared" si="0"/>
+        <v>42952</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>5</v>
       </c>
-      <c r="D12" s="22">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
-        <v>825.9677419354839</v>
-      </c>
-      <c r="F12" s="23">
+        <v>28</v>
+      </c>
+      <c r="E12" s="19">
         <f t="shared" si="2"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="G12" s="23">
+        <v>874.53571428571433</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" si="3"/>
-        <v>0.93548387096774188</v>
-      </c>
-      <c r="H12" s="23">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G12" s="20">
         <f t="shared" si="4"/>
-        <v>0.72413793103448276</v>
-      </c>
-      <c r="I12" s="23">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="5"/>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="J12" s="23">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="6"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="K12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="20">
         <f t="shared" si="7"/>
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="L12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="20">
         <f t="shared" si="8"/>
-        <v>0.22580645161290322</v>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P12">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q12">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>25605</v>
+        <v>24487</v>
       </c>
       <c r="R12">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S12">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T12">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U12">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V12">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A12,Data!$K:$K,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <f>IF(C13&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C13))</f>
-        <v>42892</v>
+        <f t="shared" si="0"/>
+        <v>42953</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>6</v>
       </c>
-      <c r="D13" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="D13" s="19">
         <f t="shared" si="1"/>
-        <v>820.4666666666667</v>
-      </c>
-      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
         <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
         <f t="shared" si="8"/>
-        <v>0.23333333333333334</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P13">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>24614</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A13,Data!$K:$K,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <f>IF(C14&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C14))</f>
-        <v>42893</v>
+        <f t="shared" si="0"/>
+        <v>42954</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>7</v>
       </c>
-      <c r="D14" s="22">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="19">
         <f t="shared" si="1"/>
-        <v>781.57575757575762</v>
-      </c>
-      <c r="F14" s="23">
+        <v>28</v>
+      </c>
+      <c r="E14" s="19">
         <f t="shared" si="2"/>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="G14" s="23">
+        <v>907.42857142857144</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" si="3"/>
-        <v>0.93939393939393945</v>
-      </c>
-      <c r="H14" s="23">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="4"/>
-        <v>0.64516129032258063</v>
-      </c>
-      <c r="I14" s="23">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="5"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J14" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="6"/>
-        <v>0.45</v>
-      </c>
-      <c r="K14" s="23">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L14" s="24">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="K14" s="20">
         <f t="shared" si="8"/>
-        <v>0.24242424242424243</v>
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="9"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="P14">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q14">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>25792</v>
+        <v>25408</v>
       </c>
       <c r="R14">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T14">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U14">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V14">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A14,Data!$K:$K,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <f>IF(C15&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C15))</f>
-        <v>42894</v>
+        <f t="shared" si="0"/>
+        <v>42955</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>8</v>
       </c>
-      <c r="D15" s="22">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
-        <v>877.82758620689651</v>
-      </c>
-      <c r="F15" s="23">
+        <v>32</v>
+      </c>
+      <c r="E15" s="19">
         <f t="shared" si="2"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="G15" s="23">
+        <v>757.625</v>
+      </c>
+      <c r="F15" s="20">
         <f t="shared" si="3"/>
-        <v>0.93103448275862066</v>
-      </c>
-      <c r="H15" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="G15" s="20">
         <f t="shared" si="4"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="I15" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="5"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="J15" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="6"/>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="K15" s="23">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="7"/>
-        <v>0.37931034482758619</v>
-      </c>
-      <c r="L15" s="24">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K15" s="20">
         <f t="shared" si="8"/>
-        <v>0.20689655172413793</v>
+        <v>0.375</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
       </c>
       <c r="P15">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q15">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
-        <v>25457</v>
+        <v>24244</v>
       </c>
       <c r="R15">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T15">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
@@ -64758,155 +64332,155 @@
       </c>
       <c r="U15">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V15">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A15,Data!$K:$K,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <f>IF(C16&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C16))</f>
-        <v>42895</v>
+        <f t="shared" si="0"/>
+        <v>42956</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>9</v>
       </c>
-      <c r="D16" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
+        <v>29</v>
+      </c>
+      <c r="E16" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
+        <v>877.75862068965512</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="G16" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="J16" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="K16" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="9"/>
+        <v>0.20689655172413793</v>
       </c>
       <c r="P16">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q16">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="R16">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S16">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T16">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U16">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V16">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A16,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <f>IF(C17&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C17))</f>
-        <v>42896</v>
+        <f t="shared" si="0"/>
+        <v>42957</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>10</v>
       </c>
-      <c r="D17" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
-        <v>865.43333333333328</v>
-      </c>
-      <c r="F17" s="23">
+        <v>31</v>
+      </c>
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G17" s="23">
+        <v>836.48387096774195</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H17" s="23">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="4"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I17" s="23">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="5"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="J17" s="23">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="6"/>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="K17" s="23">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="7"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="L17" s="24">
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="9"/>
+        <v>0.22580645161290322</v>
       </c>
       <c r="P17">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q17">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
-        <v>25963</v>
+        <v>25931</v>
       </c>
       <c r="R17">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S17">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T17">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U17">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V17">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A17,Data!$K:$K,0)),0)</f>
@@ -64915,47 +64489,47 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <f>IF(C18&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C18))</f>
-        <v>42897</v>
+        <f t="shared" si="0"/>
+        <v>42958</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>11</v>
       </c>
-      <c r="D18" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="D18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="E18" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="23">
+      <c r="F18" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H18" s="23">
+      <c r="G18" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="23">
+      <c r="H18" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="23">
+      <c r="I18" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
+      <c r="J18" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="24">
+      <c r="K18" s="20">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P18">
@@ -64989,72 +64563,72 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <f>IF(C19&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C19))</f>
-        <v>42898</v>
+        <f t="shared" si="0"/>
+        <v>42959</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>12</v>
       </c>
-      <c r="D19" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="D19" s="19">
         <f t="shared" si="1"/>
-        <v>835.9</v>
-      </c>
-      <c r="F19" s="23">
+        <v>32</v>
+      </c>
+      <c r="E19" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="23">
+        <v>802.53125</v>
+      </c>
+      <c r="F19" s="20">
         <f t="shared" si="3"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="H19" s="23">
+        <v>9.375E-2</v>
+      </c>
+      <c r="G19" s="20">
         <f t="shared" si="4"/>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I19" s="23">
+        <v>0.9375</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="5"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="J19" s="23">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="I19" s="20">
         <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K19" s="23">
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="J19" s="20">
         <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="L19" s="24">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="K19" s="20">
         <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
+        <v>0.53125</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="9"/>
+        <v>0.3125</v>
       </c>
       <c r="P19">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q19">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
-        <v>25077</v>
+        <v>25681</v>
       </c>
       <c r="R19">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S19">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T19">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U19">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="V19">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A19,Data!$K:$K,0)),0)</f>
@@ -65063,47 +64637,47 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <f>IF(C20&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C20))</f>
-        <v>42899</v>
+        <f t="shared" si="0"/>
+        <v>42960</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="21">
+      <c r="C20" s="18">
         <v>13</v>
       </c>
-      <c r="D20" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="D20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="23">
+      <c r="E20" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="23">
+      <c r="F20" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="23">
+      <c r="G20" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I20" s="23">
+      <c r="H20" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="23">
+      <c r="I20" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K20" s="23">
+      <c r="J20" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="24">
+      <c r="K20" s="20">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P20">
@@ -65137,146 +64711,146 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <f>IF(C21&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C21))</f>
-        <v>42900</v>
+        <f t="shared" si="0"/>
+        <v>42961</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="21">
+      <c r="C21" s="18">
         <v>14</v>
       </c>
-      <c r="D21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D21" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
+        <v>33</v>
+      </c>
+      <c r="E21" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
+        <v>742.66666666666663</v>
+      </c>
+      <c r="F21" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G21" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="I21" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="23">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J21" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="K21" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="9"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="P21">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q21">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>24508</v>
       </c>
       <c r="R21">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S21">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="T21">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U21">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V21">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A21,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <f>IF(C22&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C22))</f>
-        <v>42901</v>
+        <f t="shared" si="0"/>
+        <v>42962</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="21">
+      <c r="C22" s="18">
         <v>15</v>
       </c>
-      <c r="D22" s="22">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="D22" s="19">
         <f t="shared" si="1"/>
-        <v>798.54838709677415</v>
-      </c>
-      <c r="F22" s="23">
+        <v>33</v>
+      </c>
+      <c r="E22" s="19">
         <f t="shared" si="2"/>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="G22" s="23">
+        <v>776.4848484848485</v>
+      </c>
+      <c r="F22" s="20">
         <f t="shared" si="3"/>
-        <v>0.87096774193548387</v>
-      </c>
-      <c r="H22" s="23">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G22" s="20">
         <f t="shared" si="4"/>
-        <v>0.70370370370370372</v>
-      </c>
-      <c r="I22" s="23">
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" si="5"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="J22" s="23">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="I22" s="20">
         <f t="shared" si="6"/>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="K22" s="23">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="J22" s="20">
         <f t="shared" si="7"/>
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="L22" s="24">
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="K22" s="20">
         <f t="shared" si="8"/>
-        <v>0.29032258064516131</v>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="9"/>
+        <v>0.24242424242424243</v>
       </c>
       <c r="P22">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q22">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
-        <v>24755</v>
+        <v>25624</v>
       </c>
       <c r="R22">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T22">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U22">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V22">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A22,Data!$K:$K,0)),0)</f>
@@ -65285,195 +64859,195 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <f>IF(C23&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C23))</f>
-        <v>42902</v>
+        <f t="shared" si="0"/>
+        <v>42963</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>16</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="2"/>
+        <v>792.67741935483866</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="3"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="4"/>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="5"/>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="6"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="7"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="8"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="9"/>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="P23">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="Q23">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>24573</v>
+      </c>
+      <c r="R23">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="T23">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="U23">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="V23">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="22">
+        <v>42964</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="18">
+        <v>17</v>
+      </c>
+      <c r="D24" s="19">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="2"/>
+        <v>738.69696969696975</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="3"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="4"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="5"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="6"/>
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="7"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="8"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="9"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="P24">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="Q24">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>24377</v>
+      </c>
+      <c r="R24">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="S24">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="T24">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>23</v>
+      </c>
+      <c r="U24">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="V24">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>42965</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="18">
+        <v>18</v>
+      </c>
+      <c r="D25" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="23">
+      <c r="E25" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="23">
+      <c r="F25" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H23" s="23">
+      <c r="G25" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I23" s="23">
+      <c r="H25" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="23">
+      <c r="I25" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K23" s="23">
+      <c r="J25" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L23" s="24">
+      <c r="K25" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P23">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A23,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <f>IF(C24&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C24))</f>
-        <v>42903</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="21">
-        <v>17</v>
-      </c>
-      <c r="D24" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E24" s="22">
-        <f t="shared" si="1"/>
-        <v>843.4666666666667</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H24" s="23">
-        <f t="shared" si="4"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="I24" s="23">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="K24" s="23">
-        <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="L24" s="24">
-        <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="P24">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="Q24">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>25304</v>
-      </c>
-      <c r="R24">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>8</v>
-      </c>
-      <c r="S24">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>26</v>
-      </c>
-      <c r="T24">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>20</v>
-      </c>
-      <c r="U24">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>8</v>
-      </c>
-      <c r="V24">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A24,Data!$K:$K,0)),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <f>IF(C25&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C25))</f>
-        <v>42904</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="21">
-        <v>18</v>
-      </c>
-      <c r="D25" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="24">
-        <f t="shared" si="8"/>
+      <c r="L25" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P25">
@@ -65507,56 +65081,56 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <f>IF(C26&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C26))</f>
-        <v>42905</v>
+        <f t="shared" si="0"/>
+        <v>42966</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>19</v>
       </c>
-      <c r="D26" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="D26" s="19">
         <f t="shared" si="1"/>
-        <v>809.16666666666663</v>
-      </c>
-      <c r="F26" s="23">
+        <v>28</v>
+      </c>
+      <c r="E26" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="23">
+        <v>903.28571428571433</v>
+      </c>
+      <c r="F26" s="20">
         <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="H26" s="23">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" si="4"/>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="I26" s="23">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="5"/>
-        <v>0.4375</v>
-      </c>
-      <c r="J26" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I26" s="20">
         <f t="shared" si="6"/>
-        <v>0.5625</v>
-      </c>
-      <c r="K26" s="23">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J26" s="20">
         <f t="shared" si="7"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="L26" s="24">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="K26" s="20">
         <f t="shared" si="8"/>
-        <v>0.26666666666666666</v>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P26">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q26">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
-        <v>24275</v>
+        <v>25292</v>
       </c>
       <c r="R26">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
@@ -65564,15 +65138,15 @@
       </c>
       <c r="S26">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T26">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U26">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V26">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A26,Data!$K:$K,0)),0)</f>
@@ -65581,220 +65155,220 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <f>IF(C27&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C27))</f>
-        <v>42906</v>
+        <f t="shared" si="0"/>
+        <v>42967</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="21">
+      <c r="C27" s="18">
         <v>20</v>
       </c>
-      <c r="D27" s="22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="D27" s="19">
         <f t="shared" si="1"/>
-        <v>817.5</v>
-      </c>
-      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
         <f t="shared" si="4"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="I27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
         <f t="shared" si="5"/>
-        <v>0.625</v>
-      </c>
-      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
         <f t="shared" si="6"/>
-        <v>0.375</v>
-      </c>
-      <c r="K27" s="23">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="P27">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>24525</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A27,Data!$K:$K,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <f>IF(C28&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C28))</f>
-        <v>42907</v>
+        <f t="shared" si="0"/>
+        <v>42968</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>21</v>
       </c>
-      <c r="D28" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="22">
+      <c r="D28" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
+        <v>30</v>
+      </c>
+      <c r="E28" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
+        <v>807.7</v>
+      </c>
+      <c r="F28" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="23">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="I28" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="23">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="J28" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="24">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K28" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
       </c>
       <c r="P28">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q28">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>24231</v>
       </c>
       <c r="R28">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S28">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T28">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U28">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V28">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A28,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <f>IF(C29&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C29))</f>
-        <v>42908</v>
+        <f t="shared" si="0"/>
+        <v>42969</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>22</v>
       </c>
-      <c r="D29" s="22">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="D29" s="19">
         <f t="shared" si="1"/>
-        <v>875.41379310344826</v>
-      </c>
-      <c r="F29" s="23">
+        <v>33</v>
+      </c>
+      <c r="E29" s="19">
         <f t="shared" si="2"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="G29" s="23">
+        <v>766.15151515151513</v>
+      </c>
+      <c r="F29" s="20">
         <f t="shared" si="3"/>
-        <v>0.89655172413793105</v>
-      </c>
-      <c r="H29" s="23">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="4"/>
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="I29" s="23">
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="H29" s="20">
         <f t="shared" si="5"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="J29" s="23">
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="I29" s="20">
         <f t="shared" si="6"/>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="K29" s="23">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="J29" s="20">
         <f t="shared" si="7"/>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="L29" s="24">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="K29" s="20">
         <f t="shared" si="8"/>
-        <v>0.20689655172413793</v>
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="9"/>
+        <v>0.24242424242424243</v>
       </c>
       <c r="P29">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q29">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
-        <v>25387</v>
+        <v>25283</v>
       </c>
       <c r="R29">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S29">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T29">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U29">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V29">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A29,Data!$K:$K,0)),0)</f>
@@ -65803,195 +65377,195 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <f>IF(C30&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C30))</f>
-        <v>42909</v>
+        <f t="shared" si="0"/>
+        <v>42970</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="21">
+      <c r="C30" s="18">
         <v>23</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="19">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="2"/>
+        <v>790.25806451612902</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="3"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="4"/>
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="5"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I30" s="20">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30" s="20">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="8"/>
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" si="9"/>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="P30">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="Q30">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>24498</v>
+      </c>
+      <c r="R30">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="T30">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>21</v>
+      </c>
+      <c r="U30">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="V30">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
+        <v>42971</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="18">
+        <v>24</v>
+      </c>
+      <c r="D31" s="19">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" si="2"/>
+        <v>859.41379310344826</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="3"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="4"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="5"/>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="I31" s="20">
+        <f t="shared" si="6"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="J31" s="20">
+        <f t="shared" si="7"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="8"/>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="L31" s="21">
+        <f t="shared" si="9"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="P31">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>24923</v>
+      </c>
+      <c r="R31">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="T31">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="U31">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="V31">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>42972</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="18">
+        <v>25</v>
+      </c>
+      <c r="D32" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="23">
+      <c r="E32" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="23">
+      <c r="F32" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H30" s="23">
+      <c r="G32" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" s="23">
+      <c r="H32" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J30" s="23">
+      <c r="I32" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K30" s="23">
+      <c r="J32" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L30" s="24">
+      <c r="K32" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P30">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A30,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <f>IF(C31&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C31))</f>
-        <v>42910</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="21">
-        <v>24</v>
-      </c>
-      <c r="D31" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A31,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <f>IF(C32&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C32))</f>
-        <v>42911</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="21">
-        <v>25</v>
-      </c>
-      <c r="D32" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="24">
-        <f t="shared" si="8"/>
+      <c r="L32" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P32">
@@ -66025,196 +65599,196 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <f>IF(C33&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C33))</f>
-        <v>42912</v>
+        <f t="shared" si="0"/>
+        <v>42973</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="21">
+      <c r="C33" s="18">
         <v>26</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="2"/>
+        <v>829.23333333333335</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="4"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="5"/>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="I33" s="20">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="K33" s="20">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="21">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="P33">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>24877</v>
+      </c>
+      <c r="R33">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="S33">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="T33">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="V33">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
+        <v>42974</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="18">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="23">
+      <c r="E34" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="23">
+      <c r="F34" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="23">
+      <c r="G34" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="23">
+      <c r="H34" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J33" s="23">
+      <c r="I34" s="20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K33" s="23">
+      <c r="J34" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L33" s="24">
+      <c r="K34" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P33">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
+      <c r="L34" s="21">
+        <f t="shared" si="9"/>
         <v>0</v>
-      </c>
-      <c r="Q33">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A33,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <f>IF(C34&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C34))</f>
-        <v>42913</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="21">
-        <v>27</v>
-      </c>
-      <c r="D34" s="22">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E34" s="22">
-        <f t="shared" si="1"/>
-        <v>737.78787878787875</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="3"/>
-        <v>0.84848484848484851</v>
-      </c>
-      <c r="H34" s="23">
-        <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I34" s="23">
-        <f t="shared" si="5"/>
-        <v>0.65</v>
-      </c>
-      <c r="J34" s="23">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="K34" s="23">
-        <f t="shared" si="7"/>
-        <v>0.39393939393939392</v>
-      </c>
-      <c r="L34" s="24">
-        <f t="shared" si="8"/>
-        <v>0.24242424242424243</v>
       </c>
       <c r="P34">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>24347</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A34,Data!$K:$K,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <f>IF(C35&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C35))</f>
-        <v>42914</v>
+        <f t="shared" si="0"/>
+        <v>42975</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="21">
+      <c r="C35" s="18">
         <v>28</v>
       </c>
-      <c r="D35" s="22">
-        <f t="shared" si="0"/>
+      <c r="D35" s="19">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E35" s="22">
-        <f t="shared" si="1"/>
-        <v>855</v>
-      </c>
-      <c r="F35" s="23">
+      <c r="E35" s="19">
         <f t="shared" si="2"/>
+        <v>808.5</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="3"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="G35" s="23">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="G35" s="20">
         <f t="shared" si="4"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="I35" s="23">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H35" s="20">
         <f t="shared" si="5"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="J35" s="23">
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="I35" s="20">
         <f t="shared" si="6"/>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="K35" s="23">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="J35" s="20">
         <f t="shared" si="7"/>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="L35" s="24">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K35" s="20">
         <f t="shared" si="8"/>
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="L35" s="21">
+        <f t="shared" si="9"/>
+        <v>0.23333333333333334</v>
       </c>
       <c r="P35">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
@@ -66222,23 +65796,23 @@
       </c>
       <c r="Q35">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
-        <v>25650</v>
+        <v>24255</v>
       </c>
       <c r="R35">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S35">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T35">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U35">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V35">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A35,Data!$K:$K,0)),0)</f>
@@ -66247,295 +65821,299 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <f>IF(C36&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C36))</f>
-        <v>42915</v>
+        <f t="shared" si="0"/>
+        <v>42976</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="21">
+      <c r="C36" s="18">
         <v>29</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="19">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="2"/>
+        <v>887.58620689655174</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="3"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="4"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="I36" s="20">
+        <f t="shared" si="6"/>
+        <v>0.6875</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="7"/>
+        <v>0.3125</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="8"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="L36" s="21">
+        <f t="shared" si="9"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="P36">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q36">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>25740</v>
+      </c>
+      <c r="R36">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="T36">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="U36">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="V36">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <f t="shared" si="0"/>
+        <v>42977</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="18">
         <v>30</v>
       </c>
-      <c r="E36" s="22">
+      <c r="D37" s="19">
         <f t="shared" si="1"/>
-        <v>842.23333333333335</v>
-      </c>
-      <c r="F36" s="23">
+        <v>28</v>
+      </c>
+      <c r="E37" s="19">
         <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G36" s="23">
+        <v>861.96428571428567</v>
+      </c>
+      <c r="F37" s="20">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H36" s="23">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I37" s="20">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="8"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L37" s="21">
+        <f t="shared" si="9"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="P37">
+        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>28</v>
+      </c>
+      <c r="Q37">
+        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>24135</v>
+      </c>
+      <c r="R37">
+        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>24</v>
+      </c>
+      <c r="T37">
+        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="U37">
+        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V37">
+        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>42978</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="22">
+        <v>31</v>
+      </c>
+      <c r="D38" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E38" s="23">
+        <f t="shared" si="2"/>
+        <v>862.27586206896547</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="3"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" si="4"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="5"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="I36" s="23">
-        <f t="shared" si="5"/>
+      <c r="I38" s="24">
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="J36" s="23">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="K36" s="23">
+      <c r="J38" s="24">
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="L36" s="24">
+      <c r="K38" s="24">
         <f t="shared" si="8"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="P36">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>30</v>
-      </c>
-      <c r="Q36">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>25267</v>
-      </c>
-      <c r="R36">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>7</v>
-      </c>
-      <c r="S36">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>26</v>
-      </c>
-      <c r="T36">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>20</v>
-      </c>
-      <c r="U36">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>12</v>
-      </c>
-      <c r="V36">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A36,Data!$K:$K,0)),0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <f>IF(C37&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C37))</f>
-        <v>42916</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="21">
-        <v>30</v>
-      </c>
-      <c r="D37" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A37,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="b">
-        <f>IF(C38&lt;=$I$5,DATE(2017,RIGHT($H$5,2),C38))</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="25">
-        <v>31</v>
-      </c>
-      <c r="D38" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="L38" s="25">
+        <f t="shared" si="9"/>
+        <v>0.20689655172413793</v>
       </c>
       <c r="P38">
         <f>IFERROR(INDEX(Data!D:D,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q38">
         <f>IFERROR(INDEX(Data!E:E,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>25006</v>
       </c>
       <c r="R38">
         <f>IFERROR(INDEX(Data!F:F,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S38">
         <f>IFERROR(INDEX(Data!G:G,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T38">
         <f>IFERROR(INDEX(Data!H:H,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U38">
         <f>IFERROR(INDEX(Data!I:I,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V38">
         <f>IFERROR(INDEX(Data!J:J,MATCH($H$4&amp;$A38,Data!$K:$K,0)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="16" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="13" t="str">
         <f>"TOTAL " &amp; UPPER(E5)</f>
-        <v>TOTAL JUNE</v>
-      </c>
-      <c r="D39" s="10">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="E39" s="10">
+        <v>TOTAL AUGUST</v>
+      </c>
+      <c r="D39" s="7">
         <f t="shared" si="1"/>
-        <v>820.14693877551019</v>
-      </c>
-      <c r="F39" s="11">
+        <v>697</v>
+      </c>
+      <c r="E39" s="7">
         <f t="shared" si="2"/>
-        <v>0.10816326530612246</v>
-      </c>
-      <c r="G39" s="11">
+        <v>824.14777618364417</v>
+      </c>
+      <c r="F39" s="8">
         <f t="shared" si="3"/>
-        <v>0.89387755102040811</v>
-      </c>
-      <c r="H39" s="11">
+        <v>0.11047345767575323</v>
+      </c>
+      <c r="G39" s="8">
         <f t="shared" si="4"/>
-        <v>0.70776255707762559</v>
-      </c>
-      <c r="I39" s="11">
+        <v>0.90387374461979919</v>
+      </c>
+      <c r="H39" s="8">
         <f t="shared" si="5"/>
-        <v>0.52258064516129032</v>
-      </c>
-      <c r="J39" s="11">
+        <v>0.70634920634920639</v>
+      </c>
+      <c r="I39" s="8">
         <f t="shared" si="6"/>
-        <v>0.47741935483870968</v>
-      </c>
-      <c r="K39" s="11">
+        <v>0.62247191011235958</v>
+      </c>
+      <c r="J39" s="8">
         <f t="shared" si="7"/>
-        <v>0.33061224489795921</v>
-      </c>
-      <c r="L39" s="12">
+        <v>0.37752808988764047</v>
+      </c>
+      <c r="K39" s="8">
         <f t="shared" si="8"/>
-        <v>0.24897959183673468</v>
-      </c>
-      <c r="P39" s="9">
+        <v>0.39741750358680056</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="9"/>
+        <v>0.24964131994261118</v>
+      </c>
+      <c r="P39" s="6">
         <f>SUM(P8:P38)</f>
-        <v>490</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="shared" ref="Q39:V39" si="9">SUM(Q8:Q38)</f>
-        <v>401872</v>
-      </c>
-      <c r="R39" s="9">
-        <f t="shared" si="9"/>
-        <v>122</v>
-      </c>
-      <c r="S39" s="9">
-        <f t="shared" si="9"/>
-        <v>438</v>
-      </c>
-      <c r="T39" s="9">
-        <f t="shared" si="9"/>
-        <v>310</v>
-      </c>
-      <c r="U39" s="9">
-        <f t="shared" si="9"/>
-        <v>162</v>
-      </c>
-      <c r="V39" s="9">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" ref="Q39:V39" si="10">SUM(Q8:Q38)</f>
+        <v>574431</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="10"/>
+        <v>630</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="10"/>
+        <v>445</v>
+      </c>
+      <c r="U39" s="6">
+        <f t="shared" si="10"/>
+        <v>277</v>
+      </c>
+      <c r="V39" s="6">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -66561,6 +66139,154 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D0B239A4-7681-B642-848F-F4A9E70C22C3}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!L8:L38</xm:f>
+              <xm:sqref>L40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8E815C71-6D11-084D-96BA-7A20AEDB12C3}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!K8:K38</xm:f>
+              <xm:sqref>K40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF6D7-D122-064B-9F7B-63E6D42878D0}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!J8:J38</xm:f>
+              <xm:sqref>J40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FFDAA423-EE46-B144-85B5-A9EEFE890592}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!I8:I38</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{CDE4EE41-2335-3643-89CD-D04F58609793}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!H8:H38</xm:f>
+              <xm:sqref>H40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3C2294AB-F2B7-7740-8CC7-60B2854DEE04}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!G8:G38</xm:f>
+              <xm:sqref>G40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DC84B63C-BDA0-F74F-87AF-D0ECD85C9D93}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!F8:F38</xm:f>
+              <xm:sqref>F40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8349C624-4A9D-1E44-AEA4-D8A52EE04205}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!E8:E38</xm:f>
+              <xm:sqref>E40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{739BA576-2C34-3944-AAE8-05076CDC846B}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Dashboard!D8:D38</xm:f>
+              <xm:sqref>D40</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -66572,8 +66298,8 @@
   </sheetPr>
   <dimension ref="A2:W19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -66593,27 +66319,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="29"/>
       <c r="H4" s="2" t="e">
         <f>INDEX(Employee!A:A,MATCH(E4,Employee!E:E,0))</f>
         <v>#N/A</v>
@@ -66621,54 +66347,54 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>61</v>
       </c>
       <c r="P6" s="5" t="s">
@@ -66694,47 +66420,47 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="26">
         <f>INDEX(Service!C:C,MATCH(C7,Service!D:D,0))</f>
         <v>201706</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <f>IFERROR(P7,0)</f>
         <v>4905</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <f>IFERROR(Q7/P7,0)</f>
         <v>816.41590214067276</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <f>IFERROR(V7/P7,0)</f>
         <v>0.10866462793068297</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <f>IFERROR(S7/P7,0)</f>
         <v>0.90050968399592257</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <f>IFERROR(T7/S7,0)</f>
         <v>0.70455059995472036</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <f>IFERROR(U7/T7,0)</f>
         <v>0.54787917737789205</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <f>IFERROR((T7-U7)/T7,0)</f>
         <v>0.45212082262210795</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <f>IFERROR(U7/P7,0)</f>
         <v>0.34760448521916409</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="17">
         <f>IFERROR(R7/P7,0)</f>
         <v>0.24872579001019368</v>
       </c>
@@ -66770,42 +66496,42 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="19" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;D$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;E$5,Targets!$D:$D,0)),"")</f>
         <v>780</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;F$5,Targets!$D:$D,0)),"")</f>
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;G$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
+      <c r="H8" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;H$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;I$5,Targets!$D:$D,0)),"")</f>
         <v>0.505</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;J$5,Targets!$D:$D,0)),"")</f>
         <v>0.20100000000000001</v>
       </c>
-      <c r="K8" s="23" t="str">
+      <c r="K8" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;K$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A7&amp;L$5,Targets!$D:$D,0)),"")</f>
         <v>0.16700000000000001</v>
       </c>
@@ -66813,42 +66539,42 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="19" t="str">
         <f>IFERROR(D7-D8,"")</f>
         <v/>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <f t="shared" ref="E9:L9" si="0">IFERROR(E7-E8,"")</f>
         <v>36.415902140672756</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>2.6664627930682971E-2</v>
       </c>
-      <c r="G9" s="23" t="str">
+      <c r="G9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="23" t="str">
+      <c r="H9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>4.2879177377892042E-2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>0.25112082262210794</v>
       </c>
-      <c r="K9" s="23" t="str">
+      <c r="K9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
         <f t="shared" si="0"/>
         <v>8.1725790010193672E-2</v>
       </c>
@@ -66856,59 +66582,59 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <f>INDEX(Service!C:C,MATCH(C11,Service!D:D,0))</f>
         <v>201707</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <f t="shared" ref="D11:D19" si="1">IFERROR(P11,0)</f>
         <v>5355</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <f t="shared" ref="E11:E19" si="2">IFERROR(Q11/P11,0)</f>
         <v>818.90532212885159</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <f t="shared" ref="F11:F19" si="3">IFERROR(V11/P11,0)</f>
         <v>0.11167133520074697</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <f t="shared" ref="G11:G19" si="4">IFERROR(S11/P11,0)</f>
         <v>0.89915966386554624</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <f t="shared" ref="H11:I19" si="5">IFERROR(T11/S11,0)</f>
         <v>0.69823468328141225</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <f t="shared" si="5"/>
         <v>0.62165377751338491</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="20">
         <f t="shared" ref="J11:J19" si="6">IFERROR((T11-U11)/T11,0)</f>
         <v>0.37834622248661509</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <f t="shared" ref="K11:K19" si="7">IFERROR(U11/P11,0)</f>
         <v>0.39028944911297853</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="21">
         <f t="shared" ref="L11:L19" si="8">IFERROR(R11/P11,0)</f>
         <v>0.25023342670401494</v>
       </c>
@@ -66944,42 +66670,42 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="19" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;D$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;E$5,Targets!$D:$D,0)),"")</f>
         <v>783</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;F$5,Targets!$D:$D,0)),"")</f>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G12" s="23" t="str">
+      <c r="G12" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;G$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="H12" s="23" t="str">
+      <c r="H12" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;H$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;I$5,Targets!$D:$D,0)),"")</f>
         <v>0.50900000000000001</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;J$5,Targets!$D:$D,0)),"")</f>
         <v>0.19900000000000001</v>
       </c>
-      <c r="K12" s="23" t="str">
+      <c r="K12" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;K$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="21">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A11&amp;L$5,Targets!$D:$D,0)),"")</f>
         <v>0.16200000000000001</v>
       </c>
@@ -66987,42 +66713,42 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="19" t="str">
         <f>IFERROR(D11-D12,"")</f>
         <v/>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <f t="shared" ref="E13" si="9">IFERROR(E11-E12,"")</f>
         <v>35.905322128851594</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <f t="shared" ref="F13" si="10">IFERROR(F11-F12,"")</f>
         <v>3.0671335200746969E-2</v>
       </c>
-      <c r="G13" s="23" t="str">
+      <c r="G13" s="20" t="str">
         <f t="shared" ref="G13" si="11">IFERROR(G11-G12,"")</f>
         <v/>
       </c>
-      <c r="H13" s="23" t="str">
+      <c r="H13" s="20" t="str">
         <f t="shared" ref="H13" si="12">IFERROR(H11-H12,"")</f>
         <v/>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <f t="shared" ref="I13" si="13">IFERROR(I11-I12,"")</f>
         <v>0.1126537775133849</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f t="shared" ref="J13" si="14">IFERROR(J11-J12,"")</f>
         <v>0.17934622248661508</v>
       </c>
-      <c r="K13" s="23" t="str">
+      <c r="K13" s="20" t="str">
         <f t="shared" ref="K13" si="15">IFERROR(K11-K12,"")</f>
         <v/>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="21">
         <f t="shared" ref="L13" si="16">IFERROR(L11-L12,"")</f>
         <v>8.8233426704014933E-2</v>
       </c>
@@ -67030,59 +66756,59 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="26">
         <f>INDEX(Service!C:C,MATCH(C15,Service!D:D,0))</f>
         <v>201708</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>5777</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <f t="shared" si="2"/>
         <v>827.6063700882811</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <f t="shared" si="3"/>
         <v>0.11251514626969016</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <f t="shared" si="4"/>
         <v>0.8990825688073395</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="20">
         <f t="shared" si="5"/>
         <v>0.70042356565267616</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="20">
         <f t="shared" si="5"/>
         <v>0.61874656404617923</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="20">
         <f t="shared" si="6"/>
         <v>0.38125343595382077</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="20">
         <f t="shared" si="7"/>
         <v>0.3896486065431885</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="21">
         <f t="shared" si="8"/>
         <v>0.24666782066816687</v>
       </c>
@@ -67118,42 +66844,42 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="22" t="str">
+      <c r="D16" s="19" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;D$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;E$5,Targets!$D:$D,0)),"")</f>
         <v>775</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;F$5,Targets!$D:$D,0)),"")</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G16" s="23" t="str">
+      <c r="G16" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;G$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="H16" s="23" t="str">
+      <c r="H16" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;H$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;I$5,Targets!$D:$D,0)),"")</f>
         <v>0.51100000000000001</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="20">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;J$5,Targets!$D:$D,0)),"")</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="K16" s="23" t="str">
+      <c r="K16" s="20" t="str">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;K$5,Targets!$D:$D,0)),"")</f>
         <v/>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="21">
         <f>IFERROR(INDEX(Targets!$C:$C,MATCH($A15&amp;L$5,Targets!$D:$D,0)),"")</f>
         <v>0.159</v>
       </c>
@@ -67161,42 +66887,42 @@
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="19" t="str">
         <f>IFERROR(D15-D16,"")</f>
         <v/>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <f t="shared" ref="E17" si="17">IFERROR(E15-E16,"")</f>
         <v>52.606370088281096</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <f t="shared" ref="F17" si="18">IFERROR(F15-F16,"")</f>
         <v>3.7515146269690158E-2</v>
       </c>
-      <c r="G17" s="23" t="str">
+      <c r="G17" s="20" t="str">
         <f t="shared" ref="G17" si="19">IFERROR(G15-G16,"")</f>
         <v/>
       </c>
-      <c r="H17" s="23" t="str">
+      <c r="H17" s="20" t="str">
         <f t="shared" ref="H17" si="20">IFERROR(H15-H16,"")</f>
         <v/>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="20">
         <f t="shared" ref="I17" si="21">IFERROR(I15-I16,"")</f>
         <v>0.10774656404617922</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="20">
         <f t="shared" ref="J17" si="22">IFERROR(J15-J16,"")</f>
         <v>0.18325343595382076</v>
       </c>
-      <c r="K17" s="23" t="str">
+      <c r="K17" s="20" t="str">
         <f t="shared" ref="K17" si="23">IFERROR(K15-K16,"")</f>
         <v/>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="21">
         <f t="shared" ref="L17" si="24">IFERROR(L15-L16,"")</f>
         <v>8.7667820668166863E-2</v>
       </c>
@@ -67204,83 +66930,83 @@
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="16" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>16037</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <f t="shared" si="2"/>
         <v>821.27829394525156</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <f t="shared" si="3"/>
         <v>0.1110556837313712</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <f t="shared" si="4"/>
         <v>0.89954480264388603</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <f t="shared" si="5"/>
         <v>0.70095660612782473</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <f t="shared" si="5"/>
         <v>0.59790348101265822</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <f t="shared" si="6"/>
         <v>0.40209651898734178</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="8">
         <f t="shared" si="7"/>
         <v>0.37700318014591255</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
         <f t="shared" si="8"/>
         <v>0.24848787179647067</v>
       </c>
-      <c r="P19" s="9">
-        <f>SUM(P7:P18)</f>
+      <c r="P19" s="6">
+        <f t="shared" ref="P19:V19" si="25">SUM(P7:P18)</f>
         <v>16037</v>
       </c>
-      <c r="Q19" s="9">
-        <f>SUM(Q7:Q18)</f>
+      <c r="Q19" s="6">
+        <f t="shared" si="25"/>
         <v>13170840</v>
       </c>
-      <c r="R19" s="9">
-        <f>SUM(R7:R18)</f>
+      <c r="R19" s="6">
+        <f t="shared" si="25"/>
         <v>3985</v>
       </c>
-      <c r="S19" s="9">
-        <f>SUM(S7:S18)</f>
+      <c r="S19" s="6">
+        <f t="shared" si="25"/>
         <v>14426</v>
       </c>
-      <c r="T19" s="9">
-        <f>SUM(T7:T18)</f>
+      <c r="T19" s="6">
+        <f t="shared" si="25"/>
         <v>10112</v>
       </c>
-      <c r="U19" s="9">
-        <f>SUM(U7:U18)</f>
+      <c r="U19" s="6">
+        <f t="shared" si="25"/>
         <v>6046</v>
       </c>
-      <c r="V19" s="9">
-        <f>SUM(V7:V18)</f>
+      <c r="V19" s="6">
+        <f t="shared" si="25"/>
         <v>1781</v>
       </c>
     </row>
@@ -67290,58 +67016,58 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="48" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67354,10 +67080,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67370,18 +67096,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67394,10 +67120,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67410,18 +67136,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67434,10 +67160,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
